--- a/source/data/body_segments.xlsx
+++ b/source/data/body_segments.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\silva\Documents\PythonProject\smell-jena\source\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23DB74EE-3142-4A7F-AE38-F4D2F633373D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6ECE5A53-9A21-404D-A21A-AF5B08109F94}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -458,8 +458,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="S24" sqref="S24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1134,7 +1134,7 @@
         <v>415.34999999999991</v>
       </c>
       <c r="I23" s="5">
-        <v>63.333333333333329</v>
+        <v>88.333333333333329</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">

--- a/source/data/body_segments.xlsx
+++ b/source/data/body_segments.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20416"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20417"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\silva\Documents\PythonProject\smell-jena\source\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6ECE5A53-9A21-404D-A21A-AF5B08109F94}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17F48584-F926-4838-AE9A-72A2066D90F6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -458,8 +458,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="S24" sqref="S24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/source/data/body_segments.xlsx
+++ b/source/data/body_segments.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\silva\Documents\PythonProject\smell-jena\source\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17F48584-F926-4838-AE9A-72A2066D90F6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44441229-18D8-4EDB-A4F6-B82A6BFFA34C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="34">
   <si>
     <t>hair</t>
   </si>
@@ -121,6 +121,12 @@
   </si>
   <si>
     <t>back</t>
+  </si>
+  <si>
+    <t>included</t>
+  </si>
+  <si>
+    <t>n</t>
   </si>
 </sst>
 </file>
@@ -456,10 +462,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I41"/>
+  <dimension ref="A1:L41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="J41" sqref="J41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -470,7 +476,7 @@
     <col min="4" max="9" width="7.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -498,8 +504,11 @@
       <c r="I1" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -527,8 +536,12 @@
       <c r="I2" s="5">
         <v>38.333333333333329</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J2" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="K2" s="5"/>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
@@ -556,8 +569,12 @@
       <c r="I3" s="5">
         <v>63.333333333333329</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J3" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="K3" s="5"/>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>9</v>
       </c>
@@ -585,8 +602,12 @@
       <c r="I4" s="5">
         <v>88.333333333333329</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J4" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="K4" s="5"/>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>10</v>
       </c>
@@ -605,8 +626,8 @@
       <c r="F5" s="3">
         <v>46.0833333333333</v>
       </c>
-      <c r="G5" s="3">
-        <v>114.79999999999997</v>
+      <c r="G5">
+        <v>94.8</v>
       </c>
       <c r="H5" s="5">
         <v>141.80833333333334</v>
@@ -614,8 +635,13 @@
       <c r="I5" s="5">
         <v>158.23333333333332</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J5" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="K5" s="5"/>
+      <c r="L5" s="5"/>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>20</v>
       </c>
@@ -643,8 +669,12 @@
       <c r="I6" s="5">
         <v>139.48333333333332</v>
       </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J6" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="K6" s="5"/>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>11</v>
       </c>
@@ -672,8 +702,12 @@
       <c r="I7" s="5">
         <v>147.2583333333333</v>
       </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J7" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="K7" s="5"/>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>12</v>
       </c>
@@ -701,8 +735,12 @@
       <c r="I8" s="5">
         <v>89.883333333333326</v>
       </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J8" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="K8" s="5"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>21</v>
       </c>
@@ -730,8 +768,12 @@
       <c r="I9" s="5">
         <v>131.68333333333331</v>
       </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J9" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="K9" s="5"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>13</v>
       </c>
@@ -759,8 +801,12 @@
       <c r="I10" s="5">
         <v>189.08333333333329</v>
       </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J10" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="K10" s="5"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>14</v>
       </c>
@@ -788,8 +834,12 @@
       <c r="I11" s="5">
         <v>242.19166666666663</v>
       </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J11" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="K11" s="5"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>15</v>
       </c>
@@ -802,14 +852,14 @@
       <c r="D12" s="4">
         <v>109.99999999999999</v>
       </c>
-      <c r="E12" s="4">
-        <v>215.6333333333333</v>
+      <c r="E12">
+        <v>195.63333333333301</v>
       </c>
       <c r="F12" s="3">
         <v>66.666666666666671</v>
       </c>
       <c r="G12" s="3">
-        <v>53.116666666666703</v>
+        <v>73.116666666666703</v>
       </c>
       <c r="H12" s="5">
         <v>143.33333333333331</v>
@@ -817,8 +867,13 @@
       <c r="I12" s="5">
         <v>242.19166666666663</v>
       </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J12" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="K12" s="5"/>
+      <c r="L12" s="5"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>22</v>
       </c>
@@ -846,8 +901,12 @@
       <c r="I13" s="5">
         <v>218.14166666666662</v>
       </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J13" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="K13" s="5"/>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>23</v>
       </c>
@@ -875,8 +934,12 @@
       <c r="I14" s="5">
         <v>284.23333333333335</v>
       </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J14" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="K14" s="5"/>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>24</v>
       </c>
@@ -904,8 +967,12 @@
       <c r="I15" s="5">
         <v>192.30833333333334</v>
       </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J15" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="K15" s="5"/>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>16</v>
       </c>
@@ -933,8 +1000,12 @@
       <c r="I16" s="5">
         <v>381.01666666666665</v>
       </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J16" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="K16" s="5"/>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>25</v>
       </c>
@@ -962,8 +1033,12 @@
       <c r="I17" s="5">
         <v>276.49166666666662</v>
       </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J17" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="K17" s="5"/>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>26</v>
       </c>
@@ -991,8 +1066,12 @@
       <c r="I18" s="5">
         <v>310.7833333333333</v>
       </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J18" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="K18" s="5"/>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>27</v>
       </c>
@@ -1020,8 +1099,12 @@
       <c r="I19" s="5">
         <v>349.76666666666665</v>
       </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J19" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="K19" s="5"/>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>17</v>
       </c>
@@ -1049,8 +1132,12 @@
       <c r="I20" s="5">
         <v>389.18333333333328</v>
       </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J20" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="K20" s="5"/>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>0</v>
       </c>
@@ -1078,8 +1165,12 @@
       <c r="I21" s="5">
         <v>38.333333333333329</v>
       </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J21" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="K21" s="5"/>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>6</v>
       </c>
@@ -1107,8 +1198,12 @@
       <c r="I22" s="5">
         <v>63.333333333333329</v>
       </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J22" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="K22" s="5"/>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>9</v>
       </c>
@@ -1136,8 +1231,12 @@
       <c r="I23" s="5">
         <v>88.333333333333329</v>
       </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J23" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="K23" s="5"/>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>10</v>
       </c>
@@ -1148,16 +1247,16 @@
         <v>31</v>
       </c>
       <c r="D24" s="4">
-        <v>382.01666666666665</v>
+        <v>392</v>
       </c>
       <c r="E24" s="4">
         <v>100.83333333333333</v>
       </c>
       <c r="F24" s="3">
-        <v>66.666666666666629</v>
-      </c>
-      <c r="G24" s="3">
-        <v>114.79999999999997</v>
+        <v>46.7</v>
+      </c>
+      <c r="G24">
+        <v>94.8</v>
       </c>
       <c r="H24" s="5">
         <v>415.34999999999991</v>
@@ -1165,8 +1264,13 @@
       <c r="I24" s="5">
         <v>158.23333333333332</v>
       </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J24" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="K24" s="5"/>
+      <c r="L24" s="5"/>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>20</v>
       </c>
@@ -1194,8 +1298,12 @@
       <c r="I25" s="5">
         <v>139.48333333333332</v>
       </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J25" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="K25" s="5"/>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>11</v>
       </c>
@@ -1223,8 +1331,12 @@
       <c r="I26" s="5">
         <v>147.28333333333333</v>
       </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J26" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="K26" s="5"/>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
         <v>12</v>
       </c>
@@ -1252,8 +1364,12 @@
       <c r="I27" s="5">
         <v>89.883333333333326</v>
       </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J27" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="K27" s="5"/>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
         <v>21</v>
       </c>
@@ -1281,8 +1397,12 @@
       <c r="I28" s="5">
         <v>131.68333333333331</v>
       </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J28" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="K28" s="5"/>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>13</v>
       </c>
@@ -1310,8 +1430,12 @@
       <c r="I29" s="5">
         <v>189.08333333333329</v>
       </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J29" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="K29" s="5"/>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
         <v>14</v>
       </c>
@@ -1339,8 +1463,12 @@
       <c r="I30" s="5">
         <v>242.19166666666663</v>
       </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J30" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="K30" s="5"/>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
         <v>15</v>
       </c>
@@ -1353,14 +1481,14 @@
       <c r="D31" s="4">
         <v>382.01666666666665</v>
       </c>
-      <c r="E31" s="4">
-        <v>215.6333333333333</v>
+      <c r="E31">
+        <v>195.63333333333301</v>
       </c>
       <c r="F31" s="3">
-        <v>66.666666666666629</v>
+        <v>66.666666666666671</v>
       </c>
       <c r="G31" s="3">
-        <v>53.116666666666703</v>
+        <v>73.116666666666703</v>
       </c>
       <c r="H31" s="5">
         <v>415.34999999999991</v>
@@ -1368,8 +1496,13 @@
       <c r="I31" s="5">
         <v>242.19166666666663</v>
       </c>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J31" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="K31" s="5"/>
+      <c r="L31" s="5"/>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>22</v>
       </c>
@@ -1397,8 +1530,12 @@
       <c r="I32" s="5">
         <v>217.90833333333333</v>
       </c>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J32" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="K32" s="5"/>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
         <v>23</v>
       </c>
@@ -1426,8 +1563,12 @@
       <c r="I33" s="5">
         <v>284.23333333333335</v>
       </c>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J33" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="K33" s="5"/>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>24</v>
       </c>
@@ -1455,8 +1596,12 @@
       <c r="I34" s="5">
         <v>333.14166666666659</v>
       </c>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J34" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="K34" s="5"/>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
         <v>16</v>
       </c>
@@ -1484,8 +1629,12 @@
       <c r="I35" s="5">
         <v>381.01666666666665</v>
       </c>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J35" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="K35" s="5"/>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>25</v>
       </c>
@@ -1513,8 +1662,12 @@
       <c r="I36" s="5">
         <v>276.49166666666662</v>
       </c>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J36" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="K36" s="5"/>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
         <v>26</v>
       </c>
@@ -1542,8 +1695,12 @@
       <c r="I37" s="5">
         <v>310.7833333333333</v>
       </c>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J37" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="K37" s="5"/>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>27</v>
       </c>
@@ -1571,8 +1728,12 @@
       <c r="I38" s="5">
         <v>349.76666666666665</v>
       </c>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J38" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="K38" s="5"/>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
         <v>17</v>
       </c>
@@ -1600,8 +1761,12 @@
       <c r="I39" s="5">
         <v>389.18333333333328</v>
       </c>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J39" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="K39" s="5"/>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>18</v>
       </c>
@@ -1629,8 +1794,12 @@
       <c r="I40" s="5">
         <v>218</v>
       </c>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J40" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="K40" s="5"/>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>19</v>
       </c>
@@ -1658,6 +1827,10 @@
       <c r="I41" s="5">
         <v>218</v>
       </c>
+      <c r="J41" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="K41" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/source/data/body_segments.xlsx
+++ b/source/data/body_segments.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\silva\Documents\PythonProject\smell-jena\source\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44441229-18D8-4EDB-A4F6-B82A6BFFA34C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EACB480-D1BF-4353-BF11-994F27E548F7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -63,70 +63,70 @@
     <t>r_arm</t>
   </si>
   <si>
+    <t>l_arm</t>
+  </si>
+  <si>
+    <t>pelvis</t>
+  </si>
+  <si>
+    <t>front_side</t>
+  </si>
+  <si>
+    <t>back_side</t>
+  </si>
+  <si>
+    <t>r_tigh</t>
+  </si>
+  <si>
+    <t>r_calf</t>
+  </si>
+  <si>
+    <t>l_thigh</t>
+  </si>
+  <si>
+    <t>l_calf</t>
+  </si>
+  <si>
+    <t>xc</t>
+  </si>
+  <si>
+    <t>yc</t>
+  </si>
+  <si>
+    <t>front</t>
+  </si>
+  <si>
+    <t>back</t>
+  </si>
+  <si>
+    <t>included</t>
+  </si>
+  <si>
+    <t>n</t>
+  </si>
+  <si>
+    <t>r_armpit</t>
+  </si>
+  <si>
     <t>r_hand</t>
   </si>
   <si>
-    <t>l_arm</t>
+    <t>l_armpit</t>
   </si>
   <si>
     <t>l_hand</t>
   </si>
   <si>
-    <t>pelvis</t>
+    <t>r_knee</t>
   </si>
   <si>
     <t>r_foot</t>
   </si>
   <si>
+    <t>l_knee</t>
+  </si>
+  <si>
     <t>l_foot</t>
-  </si>
-  <si>
-    <t>front_side</t>
-  </si>
-  <si>
-    <t>back_side</t>
-  </si>
-  <si>
-    <t>r_armpit</t>
-  </si>
-  <si>
-    <t>l_armpit</t>
-  </si>
-  <si>
-    <t>r_tigh</t>
-  </si>
-  <si>
-    <t>r_knee</t>
-  </si>
-  <si>
-    <t>r_calf</t>
-  </si>
-  <si>
-    <t>l_thigh</t>
-  </si>
-  <si>
-    <t>l_knee</t>
-  </si>
-  <si>
-    <t>l_calf</t>
-  </si>
-  <si>
-    <t>xc</t>
-  </si>
-  <si>
-    <t>yc</t>
-  </si>
-  <si>
-    <t>front</t>
-  </si>
-  <si>
-    <t>back</t>
-  </si>
-  <si>
-    <t>included</t>
-  </si>
-  <si>
-    <t>n</t>
   </si>
 </sst>
 </file>
@@ -465,7 +465,7 @@
   <dimension ref="A1:L41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J41" sqref="J41"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -499,13 +499,13 @@
         <v>8</v>
       </c>
       <c r="H1" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="I1" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="J1" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
@@ -516,7 +516,7 @@
         <v>0</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="D2" s="4">
         <v>109.99999999999999</v>
@@ -549,7 +549,7 @@
         <v>1</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="D3" s="4">
         <v>109.99999999999999</v>
@@ -582,7 +582,7 @@
         <v>2</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="D4" s="4">
         <v>109.99999999999999</v>
@@ -615,7 +615,7 @@
         <v>3</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="D5" s="4">
         <v>118.76666666666667</v>
@@ -643,13 +643,13 @@
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="B6" s="2">
         <v>4</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="D6" s="4">
         <v>68.566666666666663</v>
@@ -682,7 +682,7 @@
         <v>5</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="D7" s="5">
         <v>15.449999999999998</v>
@@ -703,19 +703,19 @@
         <v>147.2583333333333</v>
       </c>
       <c r="J7" s="5" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="K7" s="5"/>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="B8" s="2">
         <v>6</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="D8" s="4">
         <v>15.449999999999998</v>
@@ -742,13 +742,13 @@
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="B9" s="2">
         <v>7</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="D9" s="4">
         <v>164.84999999999997</v>
@@ -775,13 +775,13 @@
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B10">
         <v>8</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="D10" s="5">
         <v>176.85</v>
@@ -802,19 +802,19 @@
         <v>189.08333333333329</v>
       </c>
       <c r="J10" s="5" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="K10" s="5"/>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="B11" s="2">
         <v>9</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="D11" s="4">
         <v>176.85</v>
@@ -841,13 +841,13 @@
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B12" s="2">
         <v>10</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="D12" s="4">
         <v>109.99999999999999</v>
@@ -875,13 +875,13 @@
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="B13">
         <v>11</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="D13" s="5">
         <v>56.883333333333333</v>
@@ -902,19 +902,19 @@
         <v>218.14166666666662</v>
       </c>
       <c r="J13" s="5" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="K13" s="5"/>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="B14" s="2">
         <v>12</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="D14" s="4">
         <v>56.883333333333333</v>
@@ -941,13 +941,13 @@
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="B15">
         <v>13</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="D15" s="5">
         <v>56.883333333333333</v>
@@ -968,19 +968,19 @@
         <v>192.30833333333334</v>
       </c>
       <c r="J15" s="5" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="K15" s="5"/>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="B16" s="2">
         <v>14</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="D16" s="4">
         <v>74.2</v>
@@ -1007,13 +1007,13 @@
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="B17">
         <v>15</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="D17" s="5">
         <v>127.29999999999998</v>
@@ -1034,19 +1034,19 @@
         <v>276.49166666666662</v>
       </c>
       <c r="J17" s="5" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="K17" s="5"/>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="B18" s="2">
         <v>16</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="D18" s="4">
         <v>127.29999999999998</v>
@@ -1073,13 +1073,13 @@
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="B19">
         <v>17</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="D19" s="5">
         <v>127.29999999999998</v>
@@ -1100,19 +1100,19 @@
         <v>349.76666666666665</v>
       </c>
       <c r="J19" s="5" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="K19" s="5"/>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
-        <v>17</v>
+        <v>33</v>
       </c>
       <c r="B20" s="2">
         <v>18</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="D20" s="4">
         <v>127.29999999999998</v>
@@ -1145,7 +1145,7 @@
         <v>19</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="D21" s="4">
         <v>382.01666666666665</v>
@@ -1178,7 +1178,7 @@
         <v>20</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="D22" s="4">
         <v>382.01666666666665</v>
@@ -1211,7 +1211,7 @@
         <v>21</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="D23" s="4">
         <v>382.01666666666665</v>
@@ -1244,7 +1244,7 @@
         <v>22</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="D24" s="4">
         <v>392</v>
@@ -1272,13 +1272,13 @@
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="B25" s="2">
         <v>23</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="D25" s="4">
         <v>438.4</v>
@@ -1311,7 +1311,7 @@
         <v>24</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="D26" s="5">
         <v>490.11666666666662</v>
@@ -1332,19 +1332,19 @@
         <v>147.28333333333333</v>
       </c>
       <c r="J26" s="5" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="K26" s="5"/>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="B27" s="2">
         <v>25</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="D27" s="4">
         <v>490.11666666666662</v>
@@ -1371,13 +1371,13 @@
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="B28" s="2">
         <v>26</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="D28" s="4">
         <v>328.73333333333329</v>
@@ -1404,13 +1404,13 @@
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B29">
         <v>27</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="D29" s="5">
         <v>328.73333333333329</v>
@@ -1431,19 +1431,19 @@
         <v>189.08333333333329</v>
       </c>
       <c r="J29" s="5" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="K29" s="5"/>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="B30" s="2">
         <v>28</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="D30" s="4">
         <v>328.73333333333329</v>
@@ -1470,13 +1470,13 @@
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B31" s="2">
         <v>29</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="D31" s="4">
         <v>382.01666666666665</v>
@@ -1504,13 +1504,13 @@
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="B32">
         <v>30</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="D32" s="5">
         <v>448.68333333333328</v>
@@ -1531,19 +1531,19 @@
         <v>217.90833333333333</v>
       </c>
       <c r="J32" s="5" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="K32" s="5"/>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="B33" s="2">
         <v>31</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="D33" s="4">
         <v>448.68333333333328</v>
@@ -1570,13 +1570,13 @@
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="B34">
         <v>32</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="D34" s="5">
         <v>448.68333333333328</v>
@@ -1597,19 +1597,19 @@
         <v>333.14166666666659</v>
       </c>
       <c r="J34" s="5" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="K34" s="5"/>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="B35" s="2">
         <v>33</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="D35" s="4">
         <v>431.36666666666662</v>
@@ -1636,13 +1636,13 @@
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="B36">
         <v>34</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="D36" s="5">
         <v>378.26666666666665</v>
@@ -1663,19 +1663,19 @@
         <v>276.49166666666662</v>
       </c>
       <c r="J36" s="5" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="K36" s="5"/>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="B37" s="2">
         <v>35</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="D37" s="4">
         <v>378.26666666666665</v>
@@ -1702,13 +1702,13 @@
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="B38">
         <v>36</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="D38" s="5">
         <v>378.26666666666665</v>
@@ -1729,19 +1729,19 @@
         <v>349.76666666666665</v>
       </c>
       <c r="J38" s="5" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="K38" s="5"/>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
-        <v>17</v>
+        <v>33</v>
       </c>
       <c r="B39" s="2">
         <v>37</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="D39" s="4">
         <v>378.26666666666665</v>
@@ -1768,13 +1768,13 @@
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="B40">
         <v>38</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="D40" s="5">
         <v>0</v>
@@ -1795,19 +1795,19 @@
         <v>218</v>
       </c>
       <c r="J40" s="5" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="K40" s="5"/>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="B41">
         <v>39</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="D41" s="5">
         <v>280.5</v>
@@ -1828,7 +1828,7 @@
         <v>218</v>
       </c>
       <c r="J41" s="5" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="K41" s="5"/>
     </row>
